--- a/file_checks/X_wrong_length_correct_genes_example.xlsx
+++ b/file_checks/X_wrong_length_correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.637930190362005</v>
+        <v>0.26968245209196</v>
       </c>
       <c r="B2" t="n">
-        <v>0.924875020161289</v>
+        <v>-0.767839527469064</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.49499707862288</v>
+        <v>0.981978396165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.584173824540062</v>
+        <v>1.03688051096156</v>
       </c>
       <c r="E2" t="n">
-        <v>0.317232988559098</v>
+        <v>0.926981637685688</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.551463436064958</v>
+        <v>-1.19697918347714</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04436371750104</v>
+        <v>0.995554829038391</v>
       </c>
       <c r="H2" t="n">
-        <v>0.460377339903399</v>
+        <v>1.30549573747797</v>
       </c>
       <c r="I2" t="n">
-        <v>0.405714774954365</v>
+        <v>0.854821191193445</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.59019302064478</v>
+        <v>-0.708867863518493</v>
       </c>
       <c r="K2" t="n">
-        <v>0.10516402971828</v>
+        <v>-0.435320779268965</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.206850270870062</v>
+        <v>-0.313432566829827</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.2702772932736</v>
+        <v>-0.28487148434889</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.47650575501938</v>
+        <v>-2.8225346316747</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.691785872541374</v>
+        <v>0.571462502114866</v>
       </c>
       <c r="P2" t="n">
-        <v>0.503286148239654</v>
+        <v>1.09594898092101</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.346191792366477</v>
+        <v>0.139192666524083</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0723153966504365</v>
+        <v>0.969067469922522</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47861670550674</v>
+        <v>-0.282095851364777</v>
       </c>
       <c r="T2" t="n">
-        <v>0.168417535805445</v>
+        <v>0.793781304502228</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.864854261222547</v>
+        <v>-0.615370621119519</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.180892390063964</v>
+        <v>-0.148266315216694</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.444293684442947</v>
+        <v>0.307449608307303</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.48340370637664</v>
+        <v>-1.19705684491606</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.389215210402634</v>
+        <v>-1.23325169349395</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0936968601130428</v>
+        <v>-0.399012837185496</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.02797948299095</v>
+        <v>0.281076970008186</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.0820143980994379</v>
+        <v>0.0213303608940727</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.962084895236314</v>
+        <v>0.613720295786103</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.45741278796101</v>
+        <v>0.501994424154205</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.19161152687336</v>
+        <v>0.477740355008933</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.735551509648669</v>
+        <v>0.331718057269275</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.19990353754441</v>
+        <v>-2.81461974771716</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.336348942409227</v>
+        <v>1.57330709753195</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.628364603528778</v>
+        <v>1.16469472175438</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.45139571022754</v>
+        <v>-0.766033441961214</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.418888857817597</v>
+        <v>-0.439095857749815</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.49791492644584</v>
+        <v>-0.0234058022590132</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.31640736011606</v>
+        <v>0.243438245142776</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.890160219450545</v>
+        <v>1.33398278024215</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.454332305199711</v>
+        <v>1.64959992060074</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.525216120040324</v>
+        <v>-0.437036627602772</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.92651547140677</v>
+        <v>0.540532561932847</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.601841009940576</v>
+        <v>-0.341929545698152</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.32927186685894</v>
+        <v>1.12649764029583</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.866353133374878</v>
+        <v>-0.18327414434706</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.717411901061528</v>
+        <v>-0.526416101602976</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.372841729937466</v>
+        <v>0.217726258482781</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.472801050657937</v>
+        <v>0.272743108674476</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.190604114194418</v>
+        <v>-1.23443748657688</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.812232528945781</v>
+        <v>0.99342187597818</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.424636349819823</v>
+        <v>-0.573564329651298</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.613831652203014</v>
+        <v>0.680001798345255</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.131641071707847</v>
+        <v>1.86028402714722</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.87304385632643</v>
+        <v>1.00916988113918</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.02892737791093</v>
+        <v>0.572119885212837</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.27920848356953</v>
+        <v>-0.148314032956479</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.26205312446051</v>
+        <v>-0.23112834274666</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.13651484496264</v>
+        <v>-0.190451251840733</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.806137819714674</v>
+        <v>-0.113643378342419</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.159068550435116</v>
+        <v>0.542054525467238</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.549422075887294</v>
+        <v>-0.652851641887751</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.652492146944751</v>
+        <v>0.536562261436758</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.698174061079469</v>
+        <v>-0.508193895596538</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.10817559342814</v>
+        <v>-1.16990405808087</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.500450221421993</v>
+        <v>-0.452015585865906</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.185459972229087</v>
+        <v>-1.45709035074502</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.0659574886030339</v>
+        <v>-0.353175274475987</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.310495764252946</v>
+        <v>0.45195114536667</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.960109893076751</v>
+        <v>0.934088127399426</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.0571234131262004</v>
+        <v>1.09505582082716</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.863995731231256</v>
+        <v>0.54642365585669</v>
       </c>
       <c r="BU2" t="n">
-        <v>-1.23456177443932</v>
+        <v>1.68173300684221</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0356681960174206</v>
+        <v>-1.26185318633044</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.177722187598576</v>
+        <v>3.26222658840668</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.38328350143652</v>
+        <v>-0.527214287812393</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.53854269958511</v>
+        <v>0.0180880895107917</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0369737599171434</v>
+        <v>2.02918866466702</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.362151467428359</v>
+        <v>-1.30602976381567</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.116029315792556</v>
+        <v>-0.861042301632495</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.298625326554614</v>
+        <v>-1.60069104638721</v>
       </c>
       <c r="CD2" t="n">
-        <v>-2.48234247444313</v>
+        <v>1.02597402713644</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.695719390374767</v>
+        <v>0.124457664201167</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.430872539609428</v>
+        <v>-0.0684637667946156</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.976852813216945</v>
+        <v>0.881826767362291</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.158542858723915</v>
+        <v>-1.64897535563375</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.313108726263409</v>
+        <v>0.400865067046651</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.86443423921156</v>
+        <v>0.270714152038108</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.09408072860574</v>
+        <v>0.63994002877011</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.191643045557386</v>
+        <v>1.02161772743773</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.586663615553102</v>
+        <v>-0.676428354002687</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.18092811139625</v>
+        <v>1.6471239930711</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.73188944938442</v>
+        <v>1.85389360758655</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.774026763548264</v>
+        <v>-0.896406494376117</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.82059860020747</v>
+        <v>-0.0241147899292921</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.849157200176681</v>
+        <v>1.01145431781868</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.626137056217348</v>
+        <v>0.0654030939528013</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.28614927700222</v>
+        <v>0.0861463043962381</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.298692375440996</v>
+        <v>-0.6352178712449</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.276498934726589</v>
+        <v>0.79746660626121</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.916038333663408</v>
+        <v>0.692755894171924</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.111481103110454</v>
+        <v>-0.187378177364577</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.835781952312356</v>
+        <v>-1.60168994018331</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.746406703489572</v>
+        <v>0.446470881224379</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.372378660034997</v>
+        <v>-0.0738294024397053</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0721343409841283</v>
+        <v>0.866654001294979</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0261423366545297</v>
+        <v>-0.829223331085987</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.07586570266325</v>
+        <v>1.64890879125114</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.874343599764844</v>
+        <v>2.39332564394984</v>
       </c>
       <c r="DF2" t="n">
-        <v>-1.63317309484453</v>
+        <v>0.592592405374792</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.260452247043919</v>
+        <v>2.24530593032275</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.984925082142094</v>
+        <v>0.59871779316898</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.550191147309633</v>
+        <v>0.202931545746158</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.826894311536886</v>
+        <v>-1.30565775930377</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.367402730410003</v>
+        <v>0.361204012640345</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.433084528559675</v>
+        <v>-1.11717839730771</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.529967111838774</v>
+        <v>-0.592647938329043</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.318084603313576</v>
+        <v>-0.419082024649967</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.620547831777308</v>
+        <v>0.0933287556112938</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.64820032206323</v>
+        <v>1.74685218531944</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.108863039048313</v>
+        <v>-2.42227508802154</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.590504615410552</v>
+        <v>-0.0183741304317895</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.64760944553514</v>
+        <v>0.564080905269632</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.511506642706833</v>
+        <v>-0.558490747812243</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.559749943703058</v>
+        <v>-1.38253964065745</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.906054063177174</v>
+        <v>-0.6803307050293</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.619748047832757</v>
+        <v>2.48573397778071</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.17107531028065</v>
+        <v>1.00054618810247</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.34243344241743</v>
+        <v>1.18237225784709</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.630139309825567</v>
+        <v>1.54273685203225</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.65674653394464</v>
+        <v>-0.541500590271581</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.895205485308929</v>
+        <v>0.985868778447756</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.561732766534561</v>
+        <v>0.450619566858079</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.875947315025141</v>
+        <v>-0.635261201711799</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.138077391067228</v>
+        <v>-1.18578205409988</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.4456014018456</v>
+        <v>2.18959179613805</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.231498906946347</v>
+        <v>0.108466574327851</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.860861490860333</v>
+        <v>0.770595015900601</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.652157641816765</v>
+        <v>-0.525716565048738</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.483175396705269</v>
+        <v>0.574466917358465</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.32772845014854</v>
+        <v>1.04763419570075</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.3990019420771</v>
+        <v>-0.179743875816121</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.410274475299172</v>
+        <v>-0.0392816530575864</v>
       </c>
       <c r="EN2" t="n">
-        <v>-1.0853691520758</v>
+        <v>1.91577563905608</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.69800408437346</v>
+        <v>0.0906046905774912</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.701110226327372</v>
+        <v>0.133551401328365</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.402682551412476</v>
+        <v>1.21446647893921</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.595265342351561</v>
+        <v>0.178071656809495</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.526030296354913</v>
+        <v>-0.558200168983788</v>
       </c>
       <c r="ET2" t="n">
-        <v>-1.43105736606114</v>
+        <v>-2.22129643132233</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.913197920132657</v>
+        <v>1.65126137095522</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.23599563459602</v>
+        <v>-1.36335720766591</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.797492493032328</v>
+        <v>-1.47312419961338</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.176267302093907</v>
+        <v>0.28630803155385</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.650334251396293</v>
+        <v>0.193181816649515</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.532815975352</v>
+        <v>-1.28479688977114</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.53325640038331</v>
+        <v>-1.2460030318152</v>
       </c>
       <c r="FB2" t="n">
-        <v>-3.56050136711915</v>
+        <v>-1.38436240878599</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.41929807489729</v>
+        <v>-1.2222666153421</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.00449253006065359</v>
+        <v>-1.41217012560431</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0987860671278106</v>
+        <v>0.0312948049512933</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.840633651418393</v>
+        <v>0.670921296946083</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.475692082488959</v>
+        <v>0.107182423824126</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.32415198846469</v>
+        <v>1.21300944738286</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.3889284895848</v>
+        <v>-0.279651247068163</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.5445717562684</v>
+        <v>-0.742630958709117</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_wrong_length_correct_genes_example.xlsx
+++ b/file_checks/X_wrong_length_correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.26968245209196</v>
+        <v>-0.956195569193794</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.767839527469064</v>
+        <v>0.85678664735776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.981978396165</v>
+        <v>0.630739498715308</v>
       </c>
       <c r="D2" t="n">
-        <v>1.03688051096156</v>
+        <v>0.920250465540564</v>
       </c>
       <c r="E2" t="n">
-        <v>0.926981637685688</v>
+        <v>0.285586858072334</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.19697918347714</v>
+        <v>0.367751092883033</v>
       </c>
       <c r="G2" t="n">
-        <v>0.995554829038391</v>
+        <v>0.581870213652579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.30549573747797</v>
+        <v>2.34508076863867</v>
       </c>
       <c r="I2" t="n">
-        <v>0.854821191193445</v>
+        <v>1.41222460931157</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.708867863518493</v>
+        <v>-0.627995122860684</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.435320779268965</v>
+        <v>-0.940427108619781</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.313432566829827</v>
+        <v>-0.591862437399266</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.28487148434889</v>
+        <v>0.622114144480343</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.8225346316747</v>
+        <v>1.42837108745718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.571462502114866</v>
+        <v>-0.377227873654481</v>
       </c>
       <c r="P2" t="n">
-        <v>1.09594898092101</v>
+        <v>1.62928733291109</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.139192666524083</v>
+        <v>-0.0775492204659265</v>
       </c>
       <c r="R2" t="n">
-        <v>0.969067469922522</v>
+        <v>0.0462650916043579</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.282095851364777</v>
+        <v>0.988935965358254</v>
       </c>
       <c r="T2" t="n">
-        <v>0.793781304502228</v>
+        <v>0.690625672036609</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.615370621119519</v>
+        <v>-0.168757948645629</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.148266315216694</v>
+        <v>-0.802893411907607</v>
       </c>
       <c r="W2" t="n">
-        <v>0.307449608307303</v>
+        <v>-1.66862919084754</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.19705684491606</v>
+        <v>-1.6527942100078</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.23325169349395</v>
+        <v>-1.30460569319462</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.399012837185496</v>
+        <v>0.918392513336289</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.281076970008186</v>
+        <v>-0.141778027670761</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0213303608940727</v>
+        <v>-0.853458058872192</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.613720295786103</v>
+        <v>-0.365939854988654</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.501994424154205</v>
+        <v>-0.653274810578867</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.477740355008933</v>
+        <v>0.441085769992864</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.331718057269275</v>
+        <v>-0.673108838285569</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.81461974771716</v>
+        <v>-0.627690469307948</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.57330709753195</v>
+        <v>-0.136744389100845</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.16469472175438</v>
+        <v>2.37296416116652</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.766033441961214</v>
+        <v>0.0729844106443065</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.439095857749815</v>
+        <v>0.0852737608054014</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0234058022590132</v>
+        <v>-1.07812840539273</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.243438245142776</v>
+        <v>0.723058957684403</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.33398278024215</v>
+        <v>-0.365607523175214</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.64959992060074</v>
+        <v>-1.37975076819048</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.437036627602772</v>
+        <v>0.934188517270535</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.540532561932847</v>
+        <v>-0.348056832391726</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.341929545698152</v>
+        <v>-0.623681842864866</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.12649764029583</v>
+        <v>0.587721842979227</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.18327414434706</v>
+        <v>-1.56220132282512</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.526416101602976</v>
+        <v>-1.59485198086092</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.217726258482781</v>
+        <v>-0.506761094422335</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.272743108674476</v>
+        <v>-0.535407556597358</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.23443748657688</v>
+        <v>-0.549153347594268</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.99342187597818</v>
+        <v>0.110451356667238</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.573564329651298</v>
+        <v>-0.0977878395555985</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.680001798345255</v>
+        <v>-1.91161441716601</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.86028402714722</v>
+        <v>-1.01582997943535</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.00916988113918</v>
+        <v>0.301034694245629</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.572119885212837</v>
+        <v>1.74027758198622</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.148314032956479</v>
+        <v>1.134967157626</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.23112834274666</v>
+        <v>-0.185844337743462</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.190451251840733</v>
+        <v>1.46836700649471</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.113643378342419</v>
+        <v>0.329431461665182</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.542054525467238</v>
+        <v>-1.04414196950083</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.652851641887751</v>
+        <v>-0.03084319919678</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.536562261436758</v>
+        <v>0.0192844398845593</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.508193895596538</v>
+        <v>-0.572211132529776</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.16990405808087</v>
+        <v>-0.180296605990773</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.452015585865906</v>
+        <v>-0.55647404372462</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.45709035074502</v>
+        <v>0.0455158558964984</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.353175274475987</v>
+        <v>1.1748407588845</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.45195114536667</v>
+        <v>-0.628140802167762</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.934088127399426</v>
+        <v>1.90430515958446</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.09505582082716</v>
+        <v>-0.358132289741931</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.54642365585669</v>
+        <v>-0.555077157709711</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.68173300684221</v>
+        <v>0.515663478142884</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1.26185318633044</v>
+        <v>0.334608245238071</v>
       </c>
       <c r="BW2" t="n">
-        <v>3.26222658840668</v>
+        <v>1.14826500563713</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.527214287812393</v>
+        <v>0.192785831082607</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0180880895107917</v>
+        <v>-1.72778875671615</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.02918866466702</v>
+        <v>0.367325618329192</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.30602976381567</v>
+        <v>-0.326914660023741</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.861042301632495</v>
+        <v>1.02879833881888</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.60069104638721</v>
+        <v>-0.589116307532998</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.02597402713644</v>
+        <v>-0.136184686341806</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.124457664201167</v>
+        <v>0.549536614300903</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0684637667946156</v>
+        <v>0.13675031038451</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.881826767362291</v>
+        <v>0.551740086060081</v>
       </c>
       <c r="CH2" t="n">
-        <v>-1.64897535563375</v>
+        <v>-0.728571682880384</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.400865067046651</v>
+        <v>1.58479384866918</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.270714152038108</v>
+        <v>0.598873181130908</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.63994002877011</v>
+        <v>-0.933047117942711</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.02161772743773</v>
+        <v>-0.201077181552328</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.676428354002687</v>
+        <v>1.02029115842337</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.6471239930711</v>
+        <v>0.258951660055338</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.85389360758655</v>
+        <v>-0.012240956933493</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.896406494376117</v>
+        <v>-0.226350098721112</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0241147899292921</v>
+        <v>-1.31511490465589</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.01145431781868</v>
+        <v>-0.749980962539572</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0654030939528013</v>
+        <v>0.43461102902582</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0861463043962381</v>
+        <v>1.0952627865206</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.6352178712449</v>
+        <v>-0.889209666654155</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.79746660626121</v>
+        <v>0.266672850700767</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.692755894171924</v>
+        <v>0.305600098800003</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.187378177364577</v>
+        <v>-0.561170166686391</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.60168994018331</v>
+        <v>0.242408225704107</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.446470881224379</v>
+        <v>-0.652152170803386</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0738294024397053</v>
+        <v>0.0644471251183387</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.866654001294979</v>
+        <v>-0.381068243303494</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.829223331085987</v>
+        <v>-0.324936145428163</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.64890879125114</v>
+        <v>-1.61562344405683</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.39332564394984</v>
+        <v>-0.463974948723402</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.592592405374792</v>
+        <v>-2.14915657057299</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.24530593032275</v>
+        <v>0.0237125054539785</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.59871779316898</v>
+        <v>0.449991135059409</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.202931545746158</v>
+        <v>0.671682308936848</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.30565775930377</v>
+        <v>-0.982622365135121</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.361204012640345</v>
+        <v>0.18142614606947</v>
       </c>
       <c r="DL2" t="n">
-        <v>-1.11717839730771</v>
+        <v>0.143601012248199</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.592647938329043</v>
+        <v>-0.275015276722372</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.419082024649967</v>
+        <v>1.02828285487167</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0933287556112938</v>
+        <v>-0.450353776330581</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.74685218531944</v>
+        <v>-0.951615767656288</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-2.42227508802154</v>
+        <v>-0.128501303148666</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0183741304317895</v>
+        <v>0.420759418397203</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.564080905269632</v>
+        <v>-0.411916021490681</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.558490747812243</v>
+        <v>-0.291945478612276</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.38253964065745</v>
+        <v>-1.817940948398</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.6803307050293</v>
+        <v>-0.957915885468458</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.48573397778071</v>
+        <v>-1.05616966055312</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.00054618810247</v>
+        <v>-0.735348752800138</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.18237225784709</v>
+        <v>0.343345843337531</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.54273685203225</v>
+        <v>1.87166291246364</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.541500590271581</v>
+        <v>1.11836406530888</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.985868778447756</v>
+        <v>2.29666902674319</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.450619566858079</v>
+        <v>-1.38967953961556</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.635261201711799</v>
+        <v>1.21649977491438</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.18578205409988</v>
+        <v>-0.407628610805186</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.18959179613805</v>
+        <v>0.305531841795206</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.108466574327851</v>
+        <v>1.2178336908148</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.770595015900601</v>
+        <v>-0.154988645408222</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.525716565048738</v>
+        <v>0.623006240373513</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.574466917358465</v>
+        <v>0.793169298573081</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.04763419570075</v>
+        <v>-0.0801136522884012</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.179743875816121</v>
+        <v>0.464801855980538</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0392816530575864</v>
+        <v>-1.16928587987754</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.91577563905608</v>
+        <v>0.36460551813888</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0906046905774912</v>
+        <v>0.703045848955291</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.133551401328365</v>
+        <v>-0.0724210788718516</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.21446647893921</v>
+        <v>-0.0203505925365528</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.178071656809495</v>
+        <v>-0.288022702319882</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.558200168983788</v>
+        <v>0.150993512937258</v>
       </c>
       <c r="ET2" t="n">
-        <v>-2.22129643132233</v>
+        <v>-1.1496423480132</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.65126137095522</v>
+        <v>-0.350284901645547</v>
       </c>
       <c r="EV2" t="n">
-        <v>-1.36335720766591</v>
+        <v>1.07220763687315</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.47312419961338</v>
+        <v>-0.409230648486042</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.28630803155385</v>
+        <v>0.627872195211041</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.193181816649515</v>
+        <v>0.467094308152683</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.28479688977114</v>
+        <v>-0.938886650237427</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.2460030318152</v>
+        <v>-0.394730846595038</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.38436240878599</v>
+        <v>0.0987430683712894</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.2222666153421</v>
+        <v>-0.528630843650167</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.41217012560431</v>
+        <v>-1.07297378280849</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0312948049512933</v>
+        <v>-0.978000441806465</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.670921296946083</v>
+        <v>1.25365557481767</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.107182423824126</v>
+        <v>1.03094731489931</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.21300944738286</v>
+        <v>-0.835373151273453</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.279651247068163</v>
+        <v>-0.343543955901112</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.742630958709117</v>
+        <v>-0.649196040104737</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_wrong_length_correct_genes_example.xlsx
+++ b/file_checks/X_wrong_length_correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.956195569193794</v>
+        <v>-0.0835532340532409</v>
       </c>
       <c r="B2" t="n">
-        <v>0.85678664735776</v>
+        <v>-0.151918790228983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.630739498715308</v>
+        <v>0.653217916608679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.920250465540564</v>
+        <v>0.730946761627448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.285586858072334</v>
+        <v>0.438439457890408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.367751092883033</v>
+        <v>-0.0351945848063519</v>
       </c>
       <c r="G2" t="n">
-        <v>0.581870213652579</v>
+        <v>0.623431768233362</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34508076863867</v>
+        <v>-1.14801925445223</v>
       </c>
       <c r="I2" t="n">
-        <v>1.41222460931157</v>
+        <v>0.948404230932349</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.627995122860684</v>
+        <v>0.207295425785941</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.940427108619781</v>
+        <v>0.768697202638163</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.591862437399266</v>
+        <v>1.30339634746579</v>
       </c>
       <c r="M2" t="n">
-        <v>0.622114144480343</v>
+        <v>-0.42843999232429</v>
       </c>
       <c r="N2" t="n">
-        <v>1.42837108745718</v>
+        <v>0.348514683501412</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.377227873654481</v>
+        <v>1.05623242905597</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62928733291109</v>
+        <v>0.42453373454712</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0775492204659265</v>
+        <v>-0.0828817074256215</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0462650916043579</v>
+        <v>-1.99704775545483</v>
       </c>
       <c r="S2" t="n">
-        <v>0.988935965358254</v>
+        <v>1.531593493735</v>
       </c>
       <c r="T2" t="n">
-        <v>0.690625672036609</v>
+        <v>-0.703672181296701</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.168757948645629</v>
+        <v>-0.265709620648669</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.802893411907607</v>
+        <v>0.0943046938073864</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.66862919084754</v>
+        <v>-0.353524735694636</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.6527942100078</v>
+        <v>0.606479151227356</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.30460569319462</v>
+        <v>-1.5500610914667</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.918392513336289</v>
+        <v>-0.810356729788752</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.141778027670761</v>
+        <v>1.96840042440221</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.853458058872192</v>
+        <v>-0.660114919281294</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.365939854988654</v>
+        <v>-0.930023159641099</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.653274810578867</v>
+        <v>-1.62440786297032</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.441085769992864</v>
+        <v>0.613967000503914</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.673108838285569</v>
+        <v>-0.97507368451289</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.627690469307948</v>
+        <v>-0.770021668944458</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.136744389100845</v>
+        <v>0.93333384953016</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.37296416116652</v>
+        <v>-0.895433002450866</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0729844106443065</v>
+        <v>0.340988244172297</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0852737608054014</v>
+        <v>0.452720565865281</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.07812840539273</v>
+        <v>-0.338416861444569</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.723058957684403</v>
+        <v>0.494743891730174</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.365607523175214</v>
+        <v>-1.13855115110877</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.37975076819048</v>
+        <v>-0.472675617732043</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.934188517270535</v>
+        <v>-0.799680002007918</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.348056832391726</v>
+        <v>-0.265208190980509</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.623681842864866</v>
+        <v>-1.18049863655805</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.587721842979227</v>
+        <v>0.45184074127572</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.56220132282512</v>
+        <v>1.17070735302502</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.59485198086092</v>
+        <v>0.245357447415278</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.506761094422335</v>
+        <v>-1.04642987553864</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.535407556597358</v>
+        <v>0.349893745768702</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.549153347594268</v>
+        <v>-0.619562028884295</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.110451356667238</v>
+        <v>-2.04245591802115</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0977878395555985</v>
+        <v>-0.865283938596248</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.91161441716601</v>
+        <v>-1.99646907755795</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.01582997943535</v>
+        <v>0.267119748129287</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.301034694245629</v>
+        <v>-0.860060208718879</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.74027758198622</v>
+        <v>0.0356355272419454</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.134967157626</v>
+        <v>1.03215620964787</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.185844337743462</v>
+        <v>0.651542909777964</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.46836700649471</v>
+        <v>1.06257533187178</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.329431461665182</v>
+        <v>-2.82799948000351</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.04414196950083</v>
+        <v>-0.678084310848731</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.03084319919678</v>
+        <v>1.50365638086237</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0192844398845593</v>
+        <v>-0.374891562211847</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.572211132529776</v>
+        <v>1.08323363253218</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.180296605990773</v>
+        <v>0.466574278583491</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.55647404372462</v>
+        <v>-0.567538887539993</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0455158558964984</v>
+        <v>0.298302962112578</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.1748407588845</v>
+        <v>-0.777397762314517</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.628140802167762</v>
+        <v>0.153564706166539</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.90430515958446</v>
+        <v>-1.14052147633673</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.358132289741931</v>
+        <v>-0.0432792857399483</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.555077157709711</v>
+        <v>-0.666580336436849</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.515663478142884</v>
+        <v>1.51166316853766</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.334608245238071</v>
+        <v>-0.261265657372095</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.14826500563713</v>
+        <v>1.09277439304434</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.192785831082607</v>
+        <v>0.694016872979818</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.72778875671615</v>
+        <v>0.820313695979048</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.367325618329192</v>
+        <v>0.0574322642186916</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.326914660023741</v>
+        <v>0.618984385008767</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.02879833881888</v>
+        <v>2.61687442625082</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.589116307532998</v>
+        <v>0.140902539138591</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.136184686341806</v>
+        <v>0.0436760847710694</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.549536614300903</v>
+        <v>1.00782498674669</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.13675031038451</v>
+        <v>-0.726886834227553</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.551740086060081</v>
+        <v>0.11760894612988</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.728571682880384</v>
+        <v>-0.873110351400251</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.58479384866918</v>
+        <v>-0.473086047247136</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.598873181130908</v>
+        <v>0.519563336108749</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.933047117942711</v>
+        <v>-0.307714756741205</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.201077181552328</v>
+        <v>-0.253310743523965</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.02029115842337</v>
+        <v>1.22481568264876</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.258951660055338</v>
+        <v>0.2652499933063</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.012240956933493</v>
+        <v>2.58238668624237</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.226350098721112</v>
+        <v>0.945102846742505</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.31511490465589</v>
+        <v>0.315896399993399</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.749980962539572</v>
+        <v>1.09969847803342</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.43461102902582</v>
+        <v>-0.475513922294317</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.0952627865206</v>
+        <v>1.26692318814766</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.889209666654155</v>
+        <v>1.65831110063977</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.266672850700767</v>
+        <v>-0.99744482438666</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.305600098800003</v>
+        <v>0.157515334710644</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.561170166686391</v>
+        <v>1.01178869611024</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.242408225704107</v>
+        <v>0.19961390808384</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.652152170803386</v>
+        <v>1.31886985209437</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0644471251183387</v>
+        <v>-1.18144892636556</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.381068243303494</v>
+        <v>-0.878878856188646</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.324936145428163</v>
+        <v>-1.40046458370723</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.61562344405683</v>
+        <v>-1.31136745037038</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.463974948723402</v>
+        <v>0.803899699177687</v>
       </c>
       <c r="DF2" t="n">
-        <v>-2.14915657057299</v>
+        <v>0.177584356227594</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0237125054539785</v>
+        <v>0.627746617224246</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.449991135059409</v>
+        <v>0.259506198521757</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.671682308936848</v>
+        <v>-0.951677483207548</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.982622365135121</v>
+        <v>-0.163331110095471</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.18142614606947</v>
+        <v>1.20554915064811</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.143601012248199</v>
+        <v>0.0621655843391083</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.275015276722372</v>
+        <v>1.85898335312025</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.02828285487167</v>
+        <v>1.45903428906188</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.450353776330581</v>
+        <v>0.318702220429182</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.951615767656288</v>
+        <v>0.121277199790942</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.128501303148666</v>
+        <v>-0.108113729156237</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.420759418397203</v>
+        <v>-0.983519880497877</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.411916021490681</v>
+        <v>-0.835924247282946</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.291945478612276</v>
+        <v>0.465661819930544</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.817940948398</v>
+        <v>0.245474835051556</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.957915885468458</v>
+        <v>0.978083343989844</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.05616966055312</v>
+        <v>-0.101091788956981</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.735348752800138</v>
+        <v>1.07278870100707</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.343345843337531</v>
+        <v>1.35969965759688</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.87166291246364</v>
+        <v>0.434834790094447</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.11836406530888</v>
+        <v>-0.0202519023478684</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.29666902674319</v>
+        <v>0.245635286828171</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.38967953961556</v>
+        <v>-0.892308735852369</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.21649977491438</v>
+        <v>1.32804989394142</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.407628610805186</v>
+        <v>-1.82320369011737</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.305531841795206</v>
+        <v>-0.548176185514667</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.2178336908148</v>
+        <v>0.693900475837551</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.154988645408222</v>
+        <v>-0.390937207521999</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.623006240373513</v>
+        <v>0.130914041159339</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.793169298573081</v>
+        <v>0.215707467420992</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0801136522884012</v>
+        <v>0.371103982694232</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.464801855980538</v>
+        <v>-1.4406230316593</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.16928587987754</v>
+        <v>0.795173837263134</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.36460551813888</v>
+        <v>1.68904581602253</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.703045848955291</v>
+        <v>0.176120850641238</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.0724210788718516</v>
+        <v>-0.699943193182791</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0203505925365528</v>
+        <v>-1.11500358427688</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.288022702319882</v>
+        <v>0.679412422955202</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.150993512937258</v>
+        <v>0.353741368931675</v>
       </c>
       <c r="ET2" t="n">
-        <v>-1.1496423480132</v>
+        <v>0.522399518328253</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.350284901645547</v>
+        <v>-0.34514049755105</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.07220763687315</v>
+        <v>0.449521134266874</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.409230648486042</v>
+        <v>1.43871155475167</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.627872195211041</v>
+        <v>0.191619439565774</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.467094308152683</v>
+        <v>2.54992356520789</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.938886650237427</v>
+        <v>-0.228523770624915</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.394730846595038</v>
+        <v>1.07741940969756</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0987430683712894</v>
+        <v>-0.799806558424207</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.528630843650167</v>
+        <v>-0.484844709329357</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.07297378280849</v>
+        <v>0.396185069231768</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.978000441806465</v>
+        <v>-0.138107024260512</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.25365557481767</v>
+        <v>0.685176868413913</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.03094731489931</v>
+        <v>0.336426600933929</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.835373151273453</v>
+        <v>-1.35089711941954</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.343543955901112</v>
+        <v>-1.17459424496798</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.649196040104737</v>
+        <v>-0.260729201388274</v>
       </c>
     </row>
   </sheetData>
